--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1298364.776265409</v>
+        <v>1294352.166251416</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283191</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>287.7971664995883</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>90.5051912188231</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,7 +755,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
         <v>18.81721868247745</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -825,10 +825,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>12.21500130050431</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>41.1771852838793</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -885,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>79.76470074482877</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -949,10 +949,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>87.56115536271717</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>129.5765970421788</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1116,7 +1116,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>48.61282066995559</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>99.59933623926882</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>79.91534106849805</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1293,25 +1293,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>140.41048816207</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>52.0785263574582</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428257</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>107.4021082756243</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>176.7621441121403</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,10 +2007,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>139.483705355054</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>22.65115569188822</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2134,7 +2134,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>38.61213096654769</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2298,16 +2298,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>117.4665281367395</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>180.46444822576</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2721,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>18.70843787977262</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>31.26260713376619</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2851,7 +2851,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>107.4021082756238</v>
+        <v>94.91529601901476</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C34" t="n">
-        <v>110.0177171766866</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,10 +3426,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>123.9815576456779</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>237.7897221092684</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3556,10 +3556,10 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3669,19 +3669,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>41.55695577161244</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>119.6760079449709</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3796,7 +3796,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>55.52079624060473</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4140,10 +4140,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4197,10 +4197,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>159.9541141389045</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1681.836054204827</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>1681.836054204827</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1323.570355598077</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4330,19 +4330,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4363,19 +4363,19 @@
         <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="X2" t="n">
-        <v>2071.975386180639</v>
+        <v>2635.871647259408</v>
       </c>
       <c r="Y2" t="n">
-        <v>1681.836054204827</v>
+        <v>2635.871647259408</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686075</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>846.071687106475</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080129</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986303</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2061.243111252064</v>
+        <v>700.1577228956174</v>
       </c>
       <c r="C4" t="n">
-        <v>1892.306928324157</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="D4" t="n">
-        <v>1742.190288911821</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E4" t="n">
-        <v>1729.851903759797</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>1729.851903759797</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>1562.149067134516</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>1562.149067134516</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>3235.775364366698</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>3235.775364366698</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T4" t="n">
-        <v>3235.775364366698</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U4" t="n">
-        <v>3235.775364366698</v>
+        <v>1472.248932036482</v>
       </c>
       <c r="V4" t="n">
-        <v>2981.090876160812</v>
+        <v>1217.564443830595</v>
       </c>
       <c r="W4" t="n">
-        <v>2691.673706123851</v>
+        <v>928.1472737936348</v>
       </c>
       <c r="X4" t="n">
-        <v>2463.684155225834</v>
+        <v>700.1577228956174</v>
       </c>
       <c r="Y4" t="n">
-        <v>2242.891576082304</v>
+        <v>700.1577228956174</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1698.509627919559</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="C5" t="n">
-        <v>1698.509627919559</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3126.869541658774</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2795.806654315204</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2443.037999045089</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919559</v>
+        <v>2069.572240784009</v>
       </c>
       <c r="Y5" t="n">
-        <v>1698.509627919559</v>
+        <v>1679.432908808198</v>
       </c>
     </row>
     <row r="6">
@@ -4640,19 +4640,19 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>382.3382468580007</v>
+        <v>332.773976541745</v>
       </c>
       <c r="C7" t="n">
-        <v>213.4020639300938</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="D7" t="n">
-        <v>213.4020639300938</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1796.409096530736</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1796.409096530736</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1507.30622965638</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>1252.621741450493</v>
       </c>
       <c r="W7" t="n">
-        <v>831.1203768995482</v>
+        <v>963.2045714135322</v>
       </c>
       <c r="X7" t="n">
-        <v>603.1308260015309</v>
+        <v>735.2150205155149</v>
       </c>
       <c r="Y7" t="n">
-        <v>382.3382468580007</v>
+        <v>514.4224413719847</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.11348746897</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.150970528558</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="F8" t="n">
         <v>821.1650657389509</v>
@@ -4801,55 +4801,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>1991.252819444782</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>1601.11348746897</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>917.616325937273</v>
+        <v>700.1577228956174</v>
       </c>
       <c r="C10" t="n">
-        <v>775.7875500159902</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="D10" t="n">
-        <v>625.6709106036544</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E10" t="n">
-        <v>477.7578170212613</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1837.464090846021</v>
+        <v>1874.689976010252</v>
       </c>
       <c r="V10" t="n">
-        <v>1837.464090846021</v>
+        <v>1620.005487804365</v>
       </c>
       <c r="W10" t="n">
-        <v>1548.04692080906</v>
+        <v>1330.588317767405</v>
       </c>
       <c r="X10" t="n">
-        <v>1320.057369911043</v>
+        <v>1102.598766869387</v>
       </c>
       <c r="Y10" t="n">
-        <v>1099.264790767513</v>
+        <v>881.8061877258572</v>
       </c>
     </row>
     <row r="11">
@@ -5035,37 +5035,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>251.562654109227</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L12" t="n">
-        <v>746.8882603249857</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5272,46 +5272,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U16" t="n">
-        <v>2197.062545487567</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="17">
@@ -5515,10 +5515,10 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5591,22 +5591,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>696.7084350851671</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="C19" t="n">
-        <v>696.7084350851671</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E19" t="n">
         <v>407.9027098310023</v>
@@ -5673,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2424.083128335929</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2241.228293990834</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>2021.626829013775</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1732.551602357973</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993915</v>
+        <v>1477.867114152086</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956954</v>
+        <v>1188.449944115125</v>
       </c>
       <c r="X19" t="n">
-        <v>1099.149479058937</v>
+        <v>960.4603932171079</v>
       </c>
       <c r="Y19" t="n">
-        <v>878.3568999154069</v>
+        <v>739.6678140735778</v>
       </c>
     </row>
     <row r="20">
@@ -5734,7 +5734,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5749,7 +5749,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,25 +5828,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2407.960931088798</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2188.359466111739</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1899.284239455937</v>
       </c>
       <c r="V22" t="n">
-        <v>1688.385853854706</v>
+        <v>1644.59975125005</v>
       </c>
       <c r="W22" t="n">
-        <v>1398.968683817745</v>
+        <v>1355.182581213089</v>
       </c>
       <c r="X22" t="n">
-        <v>1398.968683817745</v>
+        <v>1127.193030315072</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>906.400451171542</v>
       </c>
     </row>
     <row r="23">
@@ -5971,28 +5971,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3194.624135499465</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>3025.687952571559</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>2875.571313159223</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E25" t="n">
-        <v>2875.571313159223</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661313</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4441.500127210834</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>4221.898662233775</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>3932.823435577973</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>3932.823435577973</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>3643.406265541013</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>3415.416714642995</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>3194.624135499465</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,61 +6214,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1337.934786622704</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D28" t="n">
-        <v>194.8007783998286</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E28" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>2233.355914590557</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>2383.002557118212</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>2716.927329289433</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>3212.252935505192</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>3809.631423131743</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>4437.22938668635</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>4437.22938668635</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>4437.22938668635</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>4654.19349744548</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>983.3556038098237</v>
+        <v>1052.829365488568</v>
       </c>
       <c r="C31" t="n">
-        <v>814.4194208819168</v>
+        <v>883.8931825606608</v>
       </c>
       <c r="D31" t="n">
-        <v>664.3027814695811</v>
+        <v>733.776543148325</v>
       </c>
       <c r="E31" t="n">
-        <v>516.389687887188</v>
+        <v>585.8634495659319</v>
       </c>
       <c r="F31" t="n">
-        <v>369.4997403892776</v>
+        <v>438.9735020680215</v>
       </c>
       <c r="G31" t="n">
-        <v>202.3036411041575</v>
+        <v>271.7774027829014</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.96308358026</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U31" t="n">
-        <v>2157.887856924458</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="V31" t="n">
-        <v>1903.203368718571</v>
+        <v>1972.677130397315</v>
       </c>
       <c r="W31" t="n">
-        <v>1613.786198681611</v>
+        <v>1683.259960360355</v>
       </c>
       <c r="X31" t="n">
-        <v>1385.796647783593</v>
+        <v>1455.270409462337</v>
       </c>
       <c r="Y31" t="n">
-        <v>1165.004068640063</v>
+        <v>1234.477830318807</v>
       </c>
     </row>
     <row r="32">
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
         <v>1948.813509611463</v>
@@ -6691,22 +6691,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6718,34 +6718,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2757.723669558404</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>2646.594662309225</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>2646.594662309225</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>2646.594662309225</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>2646.594662309225</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>2479.398563024105</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.932614305899</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.33114932884</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673038</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467151</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>3388.154264430191</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>3160.164713532174</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>2939.372134388644</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,19 +6949,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>2381.235169913446</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>2381.235169913446</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>2854.44064873475</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>3482.038612289356</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C37" t="n">
-        <v>513.8536007400712</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282753</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>2023.916610740955</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1769.232122535068</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="38">
@@ -7168,40 +7168,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2886.739351141026</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C40" t="n">
-        <v>2717.80316821312</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D40" t="n">
-        <v>2567.686528800784</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E40" t="n">
-        <v>2419.773435218391</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="F40" t="n">
-        <v>2419.773435218391</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>2419.773435218391</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>4569.948295888522</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T40" t="n">
-        <v>4350.346830911463</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U40" t="n">
-        <v>4061.271604255661</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V40" t="n">
-        <v>3806.587116049775</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W40" t="n">
-        <v>3517.169946012814</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X40" t="n">
-        <v>3289.180395114796</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y40" t="n">
-        <v>3068.387815971266</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="41">
@@ -7402,31 +7402,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,25 +7487,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>763.7541388327652</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>594.8179559048583</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>444.7013164925226</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E43" t="n">
-        <v>296.7882229101294</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F43" t="n">
-        <v>149.8982754122191</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.4026036630049</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7639,16 +7639,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7657,10 +7657,10 @@
         <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>949.9304447718133</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7845,13 +7845,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1272.131553387299</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>62.35543909864867</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>110.0033420516639</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>75.37549921168772</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23895,10 +23895,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>9.131767663158371</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>43.72409101823344</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>142.4141550350969</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>101.1181252153553</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>65.54986409393024</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0.5618377758846407</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24609,16 +24609,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>127.7255247667966</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>35.11263957635547</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24739,7 +24739,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>32.89260457060008</v>
+        <v>45.3794168272091</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24919,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C34" t="n">
-        <v>57.22910392194126</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25314,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>24.63391537253442</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>48.39475227997571</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>103.8640922513188</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>61.35027805667373</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>110.0033420516641</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26028,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26085,10 +26085,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>65.75554125013267</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>955177.0267141479</v>
+        <v>955177.0267141478</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>939197.581013729</v>
+        <v>939197.5810137287</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>939197.581013729</v>
+        <v>939197.5810137289</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>939197.5810137289</v>
+        <v>939197.5810137287</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>939197.581013729</v>
+        <v>939197.5810137287</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>939197.5810137287</v>
+        <v>939197.581013729</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>939197.5810137289</v>
+        <v>939197.581013729</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>939197.5810137289</v>
+        <v>939197.5810137287</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>939197.5810137287</v>
+        <v>939197.5810137289</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>939197.5810137289</v>
+        <v>939197.581013729</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>939197.5810137289</v>
+        <v>939197.5810137287</v>
       </c>
     </row>
   </sheetData>
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>492625.06191857</v>
+      </c>
+      <c r="C2" t="n">
         <v>492625.0619185701</v>
-      </c>
-      <c r="C2" t="n">
-        <v>492625.06191857</v>
       </c>
       <c r="D2" t="n">
         <v>492625.06191857</v>
       </c>
       <c r="E2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="F2" t="n">
         <v>484287.9598140037</v>
@@ -26331,7 +26331,7 @@
         <v>484287.9598140036</v>
       </c>
       <c r="H2" t="n">
-        <v>484287.9598140035</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="I2" t="n">
         <v>484287.9598140036</v>
@@ -26340,7 +26340,7 @@
         <v>484287.9598140036</v>
       </c>
       <c r="K2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140034</v>
       </c>
       <c r="L2" t="n">
         <v>484287.9598140036</v>
@@ -26349,13 +26349,13 @@
         <v>484287.9598140036</v>
       </c>
       <c r="N2" t="n">
+        <v>484287.9598140037</v>
+      </c>
+      <c r="O2" t="n">
         <v>484287.9598140036</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>484287.9598140035</v>
-      </c>
-      <c r="P2" t="n">
-        <v>484287.9598140036</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
         <v>217531.2023972775</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>85055.02793551206</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815714</v>
+        <v>90964.01098815711</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815713</v>
+        <v>90964.01098815707</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815714</v>
+        <v>90964.01098815707</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
@@ -26524,46 +26524,46 @@
         <v>-1035017.635358573</v>
       </c>
       <c r="C6" t="n">
-        <v>293727.1103690194</v>
+        <v>293727.1103690197</v>
       </c>
       <c r="D6" t="n">
-        <v>293727.1103690196</v>
+        <v>293727.1103690197</v>
       </c>
       <c r="E6" t="n">
-        <v>45975.99196593552</v>
+        <v>45628.61271157821</v>
       </c>
       <c r="F6" t="n">
-        <v>371388.4537732909</v>
+        <v>371041.074518934</v>
       </c>
       <c r="G6" t="n">
-        <v>371388.4537732906</v>
+        <v>371041.0745189337</v>
       </c>
       <c r="H6" t="n">
-        <v>371388.4537732906</v>
+        <v>371041.074518934</v>
       </c>
       <c r="I6" t="n">
-        <v>371388.4537732907</v>
+        <v>371041.0745189335</v>
       </c>
       <c r="J6" t="n">
-        <v>153857.2513760132</v>
+        <v>153509.8721216562</v>
       </c>
       <c r="K6" t="n">
-        <v>371388.4537732906</v>
+        <v>371041.0745189335</v>
       </c>
       <c r="L6" t="n">
-        <v>371388.4537732906</v>
+        <v>371041.0745189338</v>
       </c>
       <c r="M6" t="n">
-        <v>286333.4258377787</v>
+        <v>285986.0465834216</v>
       </c>
       <c r="N6" t="n">
-        <v>371388.4537732904</v>
+        <v>371041.0745189338</v>
       </c>
       <c r="O6" t="n">
-        <v>371388.4537732906</v>
+        <v>371041.0745189337</v>
       </c>
       <c r="P6" t="n">
-        <v>371388.4537732909</v>
+        <v>371041.0745189338</v>
       </c>
     </row>
   </sheetData>
@@ -26792,16 +26792,16 @@
         <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26813,7 +26813,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26822,10 +26822,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26962,26 +26962,26 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>278.1987997483759</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>278.1987997483754</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
@@ -26992,10 +26992,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>94.93667516389229</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>291.4251788534387</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27435,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27545,10 +27545,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>134.2189613460649</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>245.0346529217336</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>274.9183408758542</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,10 +27669,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>163.4340165961848</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27785,7 +27785,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27794,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>60.19242828926309</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27836,7 +27836,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>237.9101776666354</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27864,7 +27864,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>307.2767095024426</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>289.815759609971</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>26.83633293655782</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,10 +28067,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>234.1333118481547</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>146.0225991093089</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32566,10 +32566,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>669.466988500007</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>359.1374415194858</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33511,10 +33511,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>620.1193660647492</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33970,13 +33970,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>175.6052721551105</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473073</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34207,13 +34207,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473073</v>
@@ -34225,10 +34225,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34453,19 +34453,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>514.8598010172138</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>8.181160134949948</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36214,10 +36214,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,22 +36442,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>526.8707440555626</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,25 +36916,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>219.1556674334643</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37159,10 +37159,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>477.9853321427309</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>37.76383318075146</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.3288951674331</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.3288951674331</v>
@@ -37873,10 +37873,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,19 +38101,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>376.3054212373396</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1294352.166251416</v>
+        <v>1296112.696554202</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283194</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>287.7971664995883</v>
+        <v>36.80199454068629</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,10 +712,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
         <v>18.81721868247745</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -867,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>72.89138480951627</v>
       </c>
       <c r="U4" t="n">
-        <v>41.1771852838793</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -885,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>228.0656025585478</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>87.56115536271717</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1056,10 +1056,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>99.80535061811121</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1071,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>129.5765970421788</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1135,16 +1135,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>99.59933623926882</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1186,19 +1186,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>92.47445699814351</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1299,7 +1299,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>52.0785263574582</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187844</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>126.4267013134143</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>83.06560892428257</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>107.4021082756243</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,13 +2004,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>22.65115569188822</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>108.5813113004299</v>
       </c>
     </row>
     <row r="20">
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2241,13 +2241,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>38.61213096654769</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>99.97427419833861</v>
+        <v>93.4044447618827</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="27">
@@ -2724,16 +2724,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>31.26260713376619</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>49.33106662725117</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>94.91529601901476</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>122.6028762599951</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>237.7897221092684</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>80.08971311158706</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3672,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>41.55695577161244</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>220.6346102953135</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>1.799772605716619</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>137.9792024346624</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>55.52079624060383</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4330,10 +4330,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4348,7 +4348,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
@@ -4363,19 +4363,19 @@
         <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W2" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X2" t="n">
-        <v>2635.871647259408</v>
+        <v>2382.341170533244</v>
       </c>
       <c r="Y2" t="n">
-        <v>2635.871647259408</v>
+        <v>2382.341170533244</v>
       </c>
     </row>
     <row r="3">
@@ -4397,16 +4397,16 @@
         <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686075</v>
+        <v>936.5735814686076</v>
       </c>
       <c r="H3" t="n">
-        <v>846.071687106475</v>
+        <v>846.0716871064751</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080129</v>
+        <v>827.064395508013</v>
       </c>
       <c r="J3" t="n">
         <v>920.7416649986303</v>
@@ -4433,16 +4433,16 @@
         <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
         <v>2540.160626275695</v>
@@ -4451,10 +4451,10 @@
         <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>700.1577228956174</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="C4" t="n">
-        <v>531.2215399677106</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>381.1049005553748</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
         <v>381.1049005553748</v>
@@ -4488,16 +4488,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4509,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T4" t="n">
-        <v>1513.842048484845</v>
+        <v>1853.666886664739</v>
       </c>
       <c r="U4" t="n">
-        <v>1472.248932036482</v>
+        <v>1853.666886664739</v>
       </c>
       <c r="V4" t="n">
-        <v>1217.564443830595</v>
+        <v>1598.982398458852</v>
       </c>
       <c r="W4" t="n">
-        <v>928.1472737936348</v>
+        <v>1309.565228421891</v>
       </c>
       <c r="X4" t="n">
-        <v>700.1577228956174</v>
+        <v>1081.575677523874</v>
       </c>
       <c r="Y4" t="n">
-        <v>700.1577228956174</v>
+        <v>860.7830983803434</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1292.833068744076</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C5" t="n">
-        <v>1292.833068744076</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>934.5673701373257</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
         <v>934.5673701373257</v>
@@ -4564,13 +4564,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4582,13 +4582,13 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4600,19 +4600,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3126.869541658774</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2795.806654315204</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2443.037999045089</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>2069.572240784009</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="Y5" t="n">
-        <v>1679.432908808198</v>
+        <v>2277.953133796417</v>
       </c>
     </row>
     <row r="6">
@@ -4622,64 +4622,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>332.773976541745</v>
+        <v>463.6594280995009</v>
       </c>
       <c r="C7" t="n">
-        <v>163.8377936138381</v>
+        <v>362.8459426266613</v>
       </c>
       <c r="D7" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="E7" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1796.409096530736</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1796.409096530736</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U7" t="n">
-        <v>1507.30622965638</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V7" t="n">
-        <v>1252.621741450493</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W7" t="n">
-        <v>963.2045714135322</v>
+        <v>1094.090022971288</v>
       </c>
       <c r="X7" t="n">
-        <v>735.2150205155149</v>
+        <v>866.1004720732708</v>
       </c>
       <c r="Y7" t="n">
-        <v>514.4224413719847</v>
+        <v>645.3078929297407</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>921.7704558796265</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>921.7704558796265</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>921.7704558796265</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>921.7704558796265</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
         <v>821.1650657389509</v>
@@ -4801,31 +4801,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.97538618064</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.50962791956</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943748</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4874,10 +4874,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4889,7 +4889,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>700.1577228956174</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>531.2215399677106</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>381.1049005553748</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
         <v>381.1049005553748</v>
@@ -4953,13 +4953,13 @@
         <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4995,19 +4995,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1874.689976010252</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1620.005487804365</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W10" t="n">
-        <v>1330.588317767405</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X10" t="n">
-        <v>1102.598766869387</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y10" t="n">
-        <v>881.8061877258572</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168588</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273908</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516145</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>119.2902967703794</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>716.6687843969311</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400721</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121652</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121652</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121652</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.294644713842</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703119</v>
+        <v>1144.284195611858</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5272,46 +5272,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5497,46 +5497,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>558.0193492433381</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C19" t="n">
-        <v>558.0193492433381</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D19" t="n">
-        <v>407.9027098310023</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
         <v>407.9027098310023</v>
@@ -5664,61 +5664,61 @@
         <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2424.083128335929</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2241.228293990834</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>2021.626829013775</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1732.551602357973</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V19" t="n">
-        <v>1477.867114152086</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W19" t="n">
-        <v>1188.449944115125</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X19" t="n">
-        <v>960.4603932171079</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y19" t="n">
-        <v>739.6678140735778</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="20">
@@ -5734,37 +5734,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>724.7519863413023</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>555.8158034133954</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E22" t="n">
         <v>407.9027098310023</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2407.960931088798</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2188.359466111739</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1899.284239455937</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1644.59975125005</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1355.182581213089</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1127.193030315072</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>906.400451171542</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5980,19 +5980,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D25" t="n">
-        <v>194.8007783998291</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E25" t="n">
-        <v>194.8007783998291</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F25" t="n">
-        <v>194.8007783998291</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,61 +6214,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>951.7772127656159</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C28" t="n">
-        <v>782.841029837709</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>632.7243904253733</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2415.384692536053</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2415.384692536053</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>2415.384692536053</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U28" t="n">
-        <v>2126.309465880251</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V28" t="n">
-        <v>1871.624977674364</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W28" t="n">
-        <v>1582.207807637403</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X28" t="n">
-        <v>1354.218256739386</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y28" t="n">
-        <v>1133.425677595856</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004712</v>
@@ -6451,19 +6451,19 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075809</v>
@@ -6475,16 +6475,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1052.829365488568</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>883.8931825606608</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>733.776543148325</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>585.8634495659319</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>438.9735020680215</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>271.7774027829014</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2227.361618603202</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1972.677130397315</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1683.259960360355</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1455.270409462337</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1234.477830318807</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6706,22 +6706,22 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6919,28 +6919,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,19 +6949,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>849.3843576263199</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C37" t="n">
-        <v>680.448174698413</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>530.3315352860773</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>382.4184417036842</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2023.916610740955</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1031.03282245656</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="38">
@@ -7168,40 +7168,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>763.7541388327652</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C40" t="n">
-        <v>594.8179559048583</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>444.7013164925226</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>444.7013164925226</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.2863919474</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741513</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704552</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X40" t="n">
-        <v>1166.195182806535</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y40" t="n">
-        <v>945.4026036630049</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="41">
@@ -7402,31 +7402,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2307.590151828076</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7639,22 +7639,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014779</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>945.402603663004</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23272,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>53.40527886852298</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>62.35543909864867</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>110.0033420516639</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23892,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>43.72409101823344</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>110.0033420516649</v>
       </c>
     </row>
     <row r="20">
@@ -24129,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>41.54258064659096</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>142.4141550350969</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>65.54986409393024</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>35.11263957635547</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>176.378588761786</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>45.3794168272091</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>48.39475227997571</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
     </row>
     <row r="38">
@@ -25560,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>103.8640922513188</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>65.54986409393067</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>79.42624789262584</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>955177.0267141478</v>
+        <v>955177.0267141479</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>939197.5810137287</v>
+        <v>939197.5810137285</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>939197.5810137289</v>
+        <v>939197.5810137287</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>939197.5810137287</v>
+        <v>939197.5810137289</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>939197.581013729</v>
+        <v>939197.5810137289</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>939197.581013729</v>
+        <v>939197.5810137287</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>939197.5810137287</v>
+        <v>939197.5810137289</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>939197.581013729</v>
+        <v>939197.5810137287</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>939197.5810137289</v>
+        <v>939197.581013729</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>939197.5810137287</v>
+        <v>939197.5810137289</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185701</v>
       </c>
       <c r="C2" t="n">
         <v>492625.0619185701</v>
@@ -26322,16 +26322,16 @@
         <v>492625.06191857</v>
       </c>
       <c r="E2" t="n">
+        <v>484287.9598140035</v>
+      </c>
+      <c r="F2" t="n">
         <v>484287.9598140036</v>
-      </c>
-      <c r="F2" t="n">
-        <v>484287.9598140037</v>
       </c>
       <c r="G2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="H2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="I2" t="n">
         <v>484287.9598140036</v>
@@ -26340,7 +26340,7 @@
         <v>484287.9598140036</v>
       </c>
       <c r="K2" t="n">
-        <v>484287.9598140034</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="L2" t="n">
         <v>484287.9598140036</v>
@@ -26349,13 +26349,13 @@
         <v>484287.9598140036</v>
       </c>
       <c r="N2" t="n">
+        <v>484287.9598140036</v>
+      </c>
+      <c r="O2" t="n">
         <v>484287.9598140037</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>484287.9598140036</v>
-      </c>
-      <c r="P2" t="n">
-        <v>484287.9598140035</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073548</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>217531.2023972775</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551206</v>
+        <v>85055.02793551169</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815711</v>
+        <v>90964.01098815714</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815707</v>
+        <v>90964.01098815714</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815707</v>
+        <v>90964.0109881571</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
@@ -26527,43 +26527,43 @@
         <v>293727.1103690197</v>
       </c>
       <c r="D6" t="n">
-        <v>293727.1103690197</v>
+        <v>293727.1103690194</v>
       </c>
       <c r="E6" t="n">
-        <v>45628.61271157821</v>
+        <v>45941.25404050011</v>
       </c>
       <c r="F6" t="n">
-        <v>371041.074518934</v>
+        <v>371353.7158478548</v>
       </c>
       <c r="G6" t="n">
-        <v>371041.0745189337</v>
+        <v>371353.715847855</v>
       </c>
       <c r="H6" t="n">
-        <v>371041.074518934</v>
+        <v>371353.7158478549</v>
       </c>
       <c r="I6" t="n">
-        <v>371041.0745189335</v>
+        <v>371353.7158478549</v>
       </c>
       <c r="J6" t="n">
-        <v>153509.8721216562</v>
+        <v>153822.5134505774</v>
       </c>
       <c r="K6" t="n">
-        <v>371041.0745189335</v>
+        <v>371353.715847855</v>
       </c>
       <c r="L6" t="n">
-        <v>371041.0745189338</v>
+        <v>371353.715847855</v>
       </c>
       <c r="M6" t="n">
-        <v>285986.0465834216</v>
+        <v>286298.6879123432</v>
       </c>
       <c r="N6" t="n">
-        <v>371041.0745189338</v>
+        <v>371353.715847855</v>
       </c>
       <c r="O6" t="n">
-        <v>371041.0745189337</v>
+        <v>371353.7158478551</v>
       </c>
       <c r="P6" t="n">
-        <v>371041.0745189338</v>
+        <v>371353.7158478549</v>
       </c>
     </row>
   </sheetData>
@@ -26792,16 +26792,16 @@
         <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26813,7 +26813,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26822,10 +26822,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26965,13 +26965,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26992,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973552</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973552</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973552</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>94.93667516389229</v>
+        <v>345.9318471227943</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>146.6575644666529</v>
       </c>
       <c r="U4" t="n">
-        <v>245.0346529217336</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>154.6682391049328</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27669,10 +27669,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>163.4340165961848</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,10 +27776,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>67.44147048051663</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27791,10 +27791,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>60.19242828926309</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27855,16 +27855,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>307.2767095024426</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27906,19 +27906,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>277.2566436803255</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28019,7 +28019,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28067,10 +28067,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>234.1333118481547</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>164.2853229338212</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558009</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>25.73094315394707</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113564</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,16 +35731,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,16 +36916,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
